--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2521.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2521.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.544322814466306</v>
+        <v>2.327753067016602</v>
       </c>
       <c r="B1">
-        <v>3.449408864235056</v>
+        <v>2.57144570350647</v>
       </c>
       <c r="C1">
-        <v>3.926559440822098</v>
+        <v>2.609463691711426</v>
       </c>
       <c r="D1">
-        <v>1.93232170458392</v>
+        <v>3.312258243560791</v>
       </c>
       <c r="E1">
-        <v>1.958590508232446</v>
+        <v>2.14574146270752</v>
       </c>
     </row>
   </sheetData>
